--- a/归经.xlsx
+++ b/归经.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21942" windowHeight="9917"/>
+    <workbookView windowWidth="17374" windowHeight="9917"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2666" uniqueCount="574">
   <si>
     <t>药物</t>
   </si>
@@ -1006,9 +1006,6 @@
     <t>升药</t>
   </si>
   <si>
-    <t>无</t>
-  </si>
-  <si>
     <t>轻粉</t>
   </si>
   <si>
@@ -1022,6 +1019,723 @@
   </si>
   <si>
     <t>硼砂</t>
+  </si>
+  <si>
+    <t>葱白</t>
+  </si>
+  <si>
+    <t>胡荽</t>
+  </si>
+  <si>
+    <t>西河柳</t>
+  </si>
+  <si>
+    <t>鹅不食草</t>
+  </si>
+  <si>
+    <t>六月寒</t>
+  </si>
+  <si>
+    <t>零陵香</t>
+  </si>
+  <si>
+    <t>黄荆子</t>
+  </si>
+  <si>
+    <t>浮萍</t>
+  </si>
+  <si>
+    <t>寒水石</t>
+  </si>
+  <si>
+    <t>苇茎</t>
+  </si>
+  <si>
+    <t>竹叶卷心</t>
+  </si>
+  <si>
+    <t>密蒙花</t>
+  </si>
+  <si>
+    <t>青葙子</t>
+  </si>
+  <si>
+    <t>木贼</t>
+  </si>
+  <si>
+    <t>夜明砂</t>
+  </si>
+  <si>
+    <t>葛花</t>
+  </si>
+  <si>
+    <t>鸭跖草</t>
+  </si>
+  <si>
+    <t>蕤仁</t>
+  </si>
+  <si>
+    <t>小檗</t>
+  </si>
+  <si>
+    <t>拳参</t>
+  </si>
+  <si>
+    <t>青果</t>
+  </si>
+  <si>
+    <t>藏青果</t>
+  </si>
+  <si>
+    <t>余甘子</t>
+  </si>
+  <si>
+    <t>北豆根</t>
+  </si>
+  <si>
+    <t>木蝴蝶</t>
+  </si>
+  <si>
+    <t>千里光</t>
+  </si>
+  <si>
+    <t>半枝莲</t>
+  </si>
+  <si>
+    <t>半边莲</t>
+  </si>
+  <si>
+    <t>山慈姑</t>
+  </si>
+  <si>
+    <t>漏芦</t>
+  </si>
+  <si>
+    <t>白蔹</t>
+  </si>
+  <si>
+    <t>绿豆</t>
+  </si>
+  <si>
+    <t>蛇胆</t>
+  </si>
+  <si>
+    <t>熊胆</t>
+  </si>
+  <si>
+    <t>鸦胆子</t>
+  </si>
+  <si>
+    <t>木芙蓉叶</t>
+  </si>
+  <si>
+    <t>金荞麦</t>
+  </si>
+  <si>
+    <t>天葵子</t>
+  </si>
+  <si>
+    <t>鬼臼</t>
+  </si>
+  <si>
+    <t>肿节风</t>
+  </si>
+  <si>
+    <t>锦灯笼</t>
+  </si>
+  <si>
+    <t>三白草</t>
+  </si>
+  <si>
+    <t>金果榄</t>
+  </si>
+  <si>
+    <t>地锦草</t>
+  </si>
+  <si>
+    <t>委陵菜</t>
+  </si>
+  <si>
+    <t>四季青</t>
+  </si>
+  <si>
+    <t>三丫苦</t>
+  </si>
+  <si>
+    <t>朱砂莲</t>
+  </si>
+  <si>
+    <t>雪胆</t>
+  </si>
+  <si>
+    <t>铁苋</t>
+  </si>
+  <si>
+    <t>紫草茸</t>
+  </si>
+  <si>
+    <t>枸骨叶</t>
+  </si>
+  <si>
+    <t>十大功劳叶</t>
+  </si>
+  <si>
+    <t>松子仁</t>
+  </si>
+  <si>
+    <t>亚麻仁</t>
+  </si>
+  <si>
+    <t>红大戟</t>
+  </si>
+  <si>
+    <t>千金子</t>
+  </si>
+  <si>
+    <t>徐长卿</t>
+  </si>
+  <si>
+    <t>雷公藤</t>
+  </si>
+  <si>
+    <t>寻骨风</t>
+  </si>
+  <si>
+    <t>松节</t>
+  </si>
+  <si>
+    <t>海桐皮</t>
+  </si>
+  <si>
+    <t>木防己</t>
+  </si>
+  <si>
+    <t>海风藤</t>
+  </si>
+  <si>
+    <t>丁公藤</t>
+  </si>
+  <si>
+    <t>两面针</t>
+  </si>
+  <si>
+    <t>八角枫</t>
+  </si>
+  <si>
+    <t>昆明山海棠</t>
+  </si>
+  <si>
+    <t>雪上一枝蒿</t>
+  </si>
+  <si>
+    <t>独一味</t>
+  </si>
+  <si>
+    <t>祖师麻</t>
+  </si>
+  <si>
+    <t>蚕沙</t>
+  </si>
+  <si>
+    <t>老鹳草</t>
+  </si>
+  <si>
+    <t>伸筋草</t>
+  </si>
+  <si>
+    <t>舒筋草</t>
+  </si>
+  <si>
+    <t>清风藤</t>
+  </si>
+  <si>
+    <t>路路通</t>
+  </si>
+  <si>
+    <t>桑枝</t>
+  </si>
+  <si>
+    <t>丝瓜络</t>
+  </si>
+  <si>
+    <t>穿山龙</t>
+  </si>
+  <si>
+    <t>千年健</t>
+  </si>
+  <si>
+    <t>鹿衔草</t>
+  </si>
+  <si>
+    <t>石楠叶</t>
+  </si>
+  <si>
+    <t>狗骨</t>
+  </si>
+  <si>
+    <t>雪莲花</t>
+  </si>
+  <si>
+    <t>厚朴花</t>
+  </si>
+  <si>
+    <t>砂仁壳</t>
+  </si>
+  <si>
+    <t>豆蔻壳</t>
+  </si>
+  <si>
+    <t>扁豆花</t>
+  </si>
+  <si>
+    <t>草木樨</t>
+  </si>
+  <si>
+    <t>玉米须</t>
+  </si>
+  <si>
+    <t>葫芦</t>
+  </si>
+  <si>
+    <t>枳椇子</t>
+  </si>
+  <si>
+    <t>泽漆</t>
+  </si>
+  <si>
+    <t>蝼蛄</t>
+  </si>
+  <si>
+    <t>荠菜</t>
+  </si>
+  <si>
+    <t>赤小豆</t>
+  </si>
+  <si>
+    <t>梓白皮</t>
+  </si>
+  <si>
+    <t>冬瓜皮</t>
+  </si>
+  <si>
+    <t>生姜皮</t>
+  </si>
+  <si>
+    <t>椒目</t>
+  </si>
+  <si>
+    <t>大豆黄卷</t>
+  </si>
+  <si>
+    <t>灯心草</t>
+  </si>
+  <si>
+    <t>海金沙藤</t>
+  </si>
+  <si>
+    <t>冬葵果</t>
+  </si>
+  <si>
+    <t>垂盆草</t>
+  </si>
+  <si>
+    <t>地耳草</t>
+  </si>
+  <si>
+    <t>溪黄草</t>
+  </si>
+  <si>
+    <t>广金钱草</t>
+  </si>
+  <si>
+    <t>天胡荽</t>
+  </si>
+  <si>
+    <t>马蹄金</t>
+  </si>
+  <si>
+    <t>獐芽菜</t>
+  </si>
+  <si>
+    <t>连钱草</t>
+  </si>
+  <si>
+    <t>红豆蔻</t>
+  </si>
+  <si>
+    <t>荜澄茄</t>
+  </si>
+  <si>
+    <t>山萘</t>
+  </si>
+  <si>
+    <t>生姜汁</t>
+  </si>
+  <si>
+    <t>青木香</t>
+  </si>
+  <si>
+    <t>天仙藤</t>
+  </si>
+  <si>
+    <t>玫瑰花</t>
+  </si>
+  <si>
+    <t>绿萼梅</t>
+  </si>
+  <si>
+    <t>娑罗子</t>
+  </si>
+  <si>
+    <t>大腹子</t>
+  </si>
+  <si>
+    <t>刀豆</t>
+  </si>
+  <si>
+    <t>甘松</t>
+  </si>
+  <si>
+    <t>九香虫</t>
+  </si>
+  <si>
+    <t>荷梗</t>
+  </si>
+  <si>
+    <t>九里香</t>
+  </si>
+  <si>
+    <t>预知子</t>
+  </si>
+  <si>
+    <t>橘红</t>
+  </si>
+  <si>
+    <t>鸡矢藤</t>
+  </si>
+  <si>
+    <t>隔山消</t>
+  </si>
+  <si>
+    <t>阿魏</t>
+  </si>
+  <si>
+    <t>鹤草芽</t>
+  </si>
+  <si>
+    <t>芜荑</t>
+  </si>
+  <si>
+    <t>鹤虱</t>
+  </si>
+  <si>
+    <t>羊蹄</t>
+  </si>
+  <si>
+    <t>花蕊石</t>
+  </si>
+  <si>
+    <t>降香</t>
+  </si>
+  <si>
+    <t>景天三七</t>
+  </si>
+  <si>
+    <t>紫珠叶</t>
+  </si>
+  <si>
+    <t>藕节</t>
+  </si>
+  <si>
+    <t>莲房</t>
+  </si>
+  <si>
+    <t>断血流</t>
+  </si>
+  <si>
+    <t>檵木</t>
+  </si>
+  <si>
+    <t>鸡冠花</t>
+  </si>
+  <si>
+    <t>灶心土</t>
+  </si>
+  <si>
+    <t>片姜黄</t>
+  </si>
+  <si>
+    <t>夏天无</t>
+  </si>
+  <si>
+    <t>枫香脂</t>
+  </si>
+  <si>
+    <t>泽兰</t>
+  </si>
+  <si>
+    <t>王不留行</t>
+  </si>
+  <si>
+    <t>月季花</t>
+  </si>
+  <si>
+    <t>凌霄花</t>
+  </si>
+  <si>
+    <t>儿茶</t>
+  </si>
+  <si>
+    <t>刘寄奴</t>
+  </si>
+  <si>
+    <t>皂角刺</t>
+  </si>
+  <si>
+    <t>脆蛇</t>
+  </si>
+  <si>
+    <t>穿山甲</t>
+  </si>
+  <si>
+    <t>虻虫</t>
+  </si>
+  <si>
+    <t>斑蝥</t>
+  </si>
+  <si>
+    <t>蜣螂</t>
+  </si>
+  <si>
+    <t>水红花子</t>
+  </si>
+  <si>
+    <t>干漆</t>
+  </si>
+  <si>
+    <t>猪牙皂</t>
+  </si>
+  <si>
+    <t>猫爪草</t>
+  </si>
+  <si>
+    <t>海浮石</t>
+  </si>
+  <si>
+    <t>瓦楞子</t>
+  </si>
+  <si>
+    <t>胖大海</t>
+  </si>
+  <si>
+    <t>猴枣</t>
+  </si>
+  <si>
+    <t>礞石</t>
+  </si>
+  <si>
+    <t>黄药子</t>
+  </si>
+  <si>
+    <t>蔊菜</t>
+  </si>
+  <si>
+    <t>岩白菜</t>
+  </si>
+  <si>
+    <t>甜杏仁</t>
+  </si>
+  <si>
+    <t>胡颓叶</t>
+  </si>
+  <si>
+    <t>满山红</t>
+  </si>
+  <si>
+    <t>华山参</t>
+  </si>
+  <si>
+    <t>罗汉果</t>
+  </si>
+  <si>
+    <t>牡荆叶</t>
+  </si>
+  <si>
+    <t>缬草</t>
+  </si>
+  <si>
+    <t>合欢花</t>
+  </si>
+  <si>
+    <t>松针</t>
+  </si>
+  <si>
+    <t>含羞草</t>
+  </si>
+  <si>
+    <t>珍珠</t>
+  </si>
+  <si>
+    <t>广枣</t>
+  </si>
+  <si>
+    <t>紫贝齿</t>
+  </si>
+  <si>
+    <t>生铁落</t>
+  </si>
+  <si>
+    <t>罗布麻叶</t>
+  </si>
+  <si>
+    <t>蝉花</t>
+  </si>
+  <si>
+    <t>蛇蜕</t>
+  </si>
+  <si>
+    <t>樟脑</t>
+  </si>
+  <si>
+    <t>安息香</t>
+  </si>
+  <si>
+    <t>白扁豆</t>
+  </si>
+  <si>
+    <t>饴糖</t>
+  </si>
+  <si>
+    <t>刺五加</t>
+  </si>
+  <si>
+    <t>绞股蓝</t>
+  </si>
+  <si>
+    <t>红景天</t>
+  </si>
+  <si>
+    <t>手参</t>
+  </si>
+  <si>
+    <t>人参叶</t>
+  </si>
+  <si>
+    <t>灵芝</t>
+  </si>
+  <si>
+    <t>糯米草</t>
+  </si>
+  <si>
+    <t>小麦</t>
+  </si>
+  <si>
+    <t>银耳</t>
+  </si>
+  <si>
+    <t>燕窝</t>
+  </si>
+  <si>
+    <t>沙棘</t>
+  </si>
+  <si>
+    <t>仙茅</t>
+  </si>
+  <si>
+    <t>海狗肾</t>
+  </si>
+  <si>
+    <t>黄狗肾</t>
+  </si>
+  <si>
+    <t>海马</t>
+  </si>
+  <si>
+    <t>韭菜子</t>
+  </si>
+  <si>
+    <t>阳起石</t>
+  </si>
+  <si>
+    <t>紫石英</t>
+  </si>
+  <si>
+    <t>胡芦巴</t>
+  </si>
+  <si>
+    <t>核桃仁</t>
+  </si>
+  <si>
+    <t>蛤蟆油</t>
+  </si>
+  <si>
+    <t>龙眼肉</t>
+  </si>
+  <si>
+    <t>黄明胶</t>
+  </si>
+  <si>
+    <t>珠子参</t>
+  </si>
+  <si>
+    <t>明党参</t>
+  </si>
+  <si>
+    <t>桑椹</t>
+  </si>
+  <si>
+    <t>黑芝麻</t>
+  </si>
+  <si>
+    <t>龟甲胶</t>
+  </si>
+  <si>
+    <t>楮实子</t>
+  </si>
+  <si>
+    <t>糯稻根须</t>
+  </si>
+  <si>
+    <t>罂粟壳</t>
+  </si>
+  <si>
+    <t>椿皮</t>
+  </si>
+  <si>
+    <t>刺猥皮</t>
+  </si>
+  <si>
+    <t>藜芦</t>
+  </si>
+  <si>
+    <t>蜂房</t>
+  </si>
+  <si>
+    <t>大蒜</t>
+  </si>
+  <si>
+    <t>木鳖子</t>
+  </si>
+  <si>
+    <t>大风子</t>
+  </si>
+  <si>
+    <t>皂矾</t>
+  </si>
+  <si>
+    <t>狼毒</t>
+  </si>
+  <si>
+    <t>硇沙</t>
+  </si>
+  <si>
+    <t>松香</t>
+  </si>
+  <si>
+    <t>虫白蜡</t>
+  </si>
+  <si>
+    <t>毛茛</t>
   </si>
 </sst>
 </file>
@@ -1029,8 +1743,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1056,23 +1770,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1080,6 +1780,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1094,7 +1802,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1108,11 +1831,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1124,26 +1885,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1161,44 +1913,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1209,7 +1923,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1221,19 +1983,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1245,7 +2001,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1257,25 +2019,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1287,7 +2067,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1299,37 +2091,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1341,55 +2103,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1400,15 +2114,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1427,6 +2132,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1434,6 +2154,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1462,36 +2206,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1506,10 +2220,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1518,133 +2232,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1744,8 +2458,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:B796" totalsRowShown="0">
-  <autoFilter ref="A1:B796"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:B1333" totalsRowShown="0">
+  <autoFilter ref="A1:B1333"/>
   <tableColumns count="2">
     <tableColumn id="1" name="药物" dataDxfId="0"/>
     <tableColumn id="2" name="归经" dataDxfId="1"/>
@@ -2012,10 +2726,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B796"/>
+  <dimension ref="A1:B1333"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B796"/>
+    <sheetView tabSelected="1" topLeftCell="A1314" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B1333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.7" outlineLevelCol="1"/>
@@ -8293,107 +9007,4404 @@
         <v>329</v>
       </c>
       <c r="B784" s="1" t="s">
-        <v>330</v>
+        <v>12</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B785" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B786" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B787" s="1" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B788" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B789" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B790" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B791" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B792" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B793" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B794" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B795" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B796" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2">
+      <c r="A797" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B797" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2">
+      <c r="A798" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B796" s="1" t="s">
+      <c r="B798" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2">
+      <c r="A799" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B799" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2">
+      <c r="A800" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B800" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2">
+      <c r="A801" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B801" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2">
+      <c r="A802" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B802" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2">
+      <c r="A803" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B803" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2">
+      <c r="A804" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B804" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2">
+      <c r="A805" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B805" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2">
+      <c r="A806" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B806" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2">
+      <c r="A807" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B807" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2">
+      <c r="A808" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B808" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2">
+      <c r="A809" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B809" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2">
+      <c r="A810" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B810" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2">
+      <c r="A811" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B811" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2">
+      <c r="A812" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B812" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2">
+      <c r="A813" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B813" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2">
+      <c r="A814" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B814" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2">
+      <c r="A815" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B815" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2">
+      <c r="A816" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B816" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2">
+      <c r="A817" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B817" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2">
+      <c r="A818" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B818" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2">
+      <c r="A819" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B819" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2">
+      <c r="A820" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B820" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2">
+      <c r="A821" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B821" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2">
+      <c r="A822" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B822" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2">
+      <c r="A823" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B823" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2">
+      <c r="A824" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B824" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2">
+      <c r="A825" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B825" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2">
+      <c r="A826" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B826" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2">
+      <c r="A827" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B827" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2">
+      <c r="A828" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B828" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2">
+      <c r="A829" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B829" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2">
+      <c r="A830" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B830" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2">
+      <c r="A831" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B831" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2">
+      <c r="A832" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B832" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2">
+      <c r="A833" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B833" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2">
+      <c r="A834" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B834" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2">
+      <c r="A835" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B835" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2">
+      <c r="A836" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B836" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2">
+      <c r="A837" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B837" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2">
+      <c r="A838" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B838" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2">
+      <c r="A839" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B839" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2">
+      <c r="A840" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B840" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2">
+      <c r="A841" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B841" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2">
+      <c r="A842" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B842" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2">
+      <c r="A843" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B843" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2">
+      <c r="A844" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B844" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2">
+      <c r="A845" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B845" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2">
+      <c r="A846" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B846" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2">
+      <c r="A847" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B847" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2">
+      <c r="A848" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B848" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2">
+      <c r="A849" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B849" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2">
+      <c r="A850" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B850" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2">
+      <c r="A851" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B851" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2">
+      <c r="A852" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B852" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2">
+      <c r="A853" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B853" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2">
+      <c r="A854" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B854" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2">
+      <c r="A855" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B855" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2">
+      <c r="A856" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B856" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2">
+      <c r="A857" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B857" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2">
+      <c r="A858" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B858" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2">
+      <c r="A859" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B859" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2">
+      <c r="A860" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B860" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2">
+      <c r="A861" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B861" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2">
+      <c r="A862" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B862" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2">
+      <c r="A863" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B863" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2">
+      <c r="A864" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B864" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2">
+      <c r="A865" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B865" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2">
+      <c r="A866" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B866" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2">
+      <c r="A867" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B867" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2">
+      <c r="A868" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B868" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2">
+      <c r="A869" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B869" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2">
+      <c r="A870" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B870" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2">
+      <c r="A871" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B871" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2">
+      <c r="A872" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B872" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2">
+      <c r="A873" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B873" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2">
+      <c r="A874" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B874" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2">
+      <c r="A875" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B875" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2">
+      <c r="A876" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B876" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2">
+      <c r="A877" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B877" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2">
+      <c r="A878" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B878" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2">
+      <c r="A879" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B879" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2">
+      <c r="A880" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B880" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2">
+      <c r="A881" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B881" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2">
+      <c r="A882" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B882" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2">
+      <c r="A883" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B883" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2">
+      <c r="A884" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B884" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2">
+      <c r="A885" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B885" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2">
+      <c r="A886" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B886" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2">
+      <c r="A887" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B887" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2">
+      <c r="A888" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B888" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2">
+      <c r="A889" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B889" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2">
+      <c r="A890" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B890" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2">
+      <c r="A891" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B891" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2">
+      <c r="A892" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B892" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2">
+      <c r="A893" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B893" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2">
+      <c r="A894" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B894" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2">
+      <c r="A895" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B895" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2">
+      <c r="A896" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B896" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2">
+      <c r="A897" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B897" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2">
+      <c r="A898" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B898" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2">
+      <c r="A899" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B899" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2">
+      <c r="A900" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B900" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2">
+      <c r="A901" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B901" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2">
+      <c r="A902" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B902" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2">
+      <c r="A903" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B903" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2">
+      <c r="A904" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B904" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2">
+      <c r="A905" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B905" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2">
+      <c r="A906" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B906" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2">
+      <c r="A907" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B907" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2">
+      <c r="A908" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B908" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2">
+      <c r="A909" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B909" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2">
+      <c r="A910" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B910" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2">
+      <c r="A911" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B911" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2">
+      <c r="A912" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B912" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2">
+      <c r="A913" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B913" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2">
+      <c r="A914" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B914" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2">
+      <c r="A915" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B915" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2">
+      <c r="A916" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B916" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2">
+      <c r="A917" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B917" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2">
+      <c r="A918" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B918" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2">
+      <c r="A919" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B919" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2">
+      <c r="A920" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B920" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2">
+      <c r="A921" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B921" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2">
+      <c r="A922" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B922" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2">
+      <c r="A923" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B923" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2">
+      <c r="A924" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B924" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2">
+      <c r="A925" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B925" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2">
+      <c r="A926" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B926" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2">
+      <c r="A927" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B927" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2">
+      <c r="A928" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B928" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2">
+      <c r="A929" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B929" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2">
+      <c r="A930" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B930" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2">
+      <c r="A931" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B931" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2">
+      <c r="A932" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B932" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2">
+      <c r="A933" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B933" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2">
+      <c r="A934" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B934" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2">
+      <c r="A935" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B935" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2">
+      <c r="A936" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B936" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2">
+      <c r="A937" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B937" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2">
+      <c r="A938" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B938" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2">
+      <c r="A939" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B939" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2">
+      <c r="A940" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B940" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2">
+      <c r="A941" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B941" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2">
+      <c r="A942" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B942" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2">
+      <c r="A943" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B943" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2">
+      <c r="A944" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B944" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2">
+      <c r="A945" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B945" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2">
+      <c r="A946" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B946" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2">
+      <c r="A947" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B947" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2">
+      <c r="A948" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B948" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2">
+      <c r="A949" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B949" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2">
+      <c r="A950" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B950" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2">
+      <c r="A951" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B951" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2">
+      <c r="A952" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B952" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2">
+      <c r="A953" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B953" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2">
+      <c r="A954" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B954" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2">
+      <c r="A955" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B955" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2">
+      <c r="A956" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B956" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2">
+      <c r="A957" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B957" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2">
+      <c r="A958" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B958" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2">
+      <c r="A959" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B959" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2">
+      <c r="A960" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B960" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2">
+      <c r="A961" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B961" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2">
+      <c r="A962" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B962" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2">
+      <c r="A963" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B963" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2">
+      <c r="A964" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B964" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2">
+      <c r="A965" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B965" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2">
+      <c r="A966" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B966" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2">
+      <c r="A967" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B967" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2">
+      <c r="A968" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B968" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2">
+      <c r="A969" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B969" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2">
+      <c r="A970" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B970" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2">
+      <c r="A971" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B971" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2">
+      <c r="A972" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B972" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2">
+      <c r="A973" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B973" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2">
+      <c r="A974" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B974" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2">
+      <c r="A975" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B975" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2">
+      <c r="A976" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B976" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2">
+      <c r="A977" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B977" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2">
+      <c r="A978" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B978" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2">
+      <c r="A979" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B979" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2">
+      <c r="A980" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B980" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2">
+      <c r="A981" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B981" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2">
+      <c r="A982" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B982" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2">
+      <c r="A983" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B983" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2">
+      <c r="A984" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B984" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2">
+      <c r="A985" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B985" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2">
+      <c r="A986" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B986" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2">
+      <c r="A987" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B987" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2">
+      <c r="A988" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B988" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2">
+      <c r="A989" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B989" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2">
+      <c r="A990" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B990" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2">
+      <c r="A991" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B991" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2">
+      <c r="A992" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B992" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2">
+      <c r="A993" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B993" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2">
+      <c r="A994" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B994" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2">
+      <c r="A995" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B995" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2">
+      <c r="A996" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B996" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2">
+      <c r="A997" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B997" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2">
+      <c r="A998" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B998" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2">
+      <c r="A999" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B999" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2">
+      <c r="A1000" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B1000" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2">
+      <c r="A1001" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B1001" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2">
+      <c r="A1002" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B1002" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2">
+      <c r="A1003" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B1003" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2">
+      <c r="A1004" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B1004" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2">
+      <c r="A1005" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B1005" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2">
+      <c r="A1006" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B1006" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2">
+      <c r="A1007" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B1007" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2">
+      <c r="A1008" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B1008" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2">
+      <c r="A1009" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B1009" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2">
+      <c r="A1010" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B1010" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2">
+      <c r="A1011" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B1011" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2">
+      <c r="A1012" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B1012" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2">
+      <c r="A1013" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B1013" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2">
+      <c r="A1014" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B1014" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2">
+      <c r="A1015" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B1015" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2">
+      <c r="A1016" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B1016" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:2">
+      <c r="A1017" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B1017" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:2">
+      <c r="A1018" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B1018" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2">
+      <c r="A1019" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B1019" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2">
+      <c r="A1020" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B1020" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:2">
+      <c r="A1021" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B1021" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:2">
+      <c r="A1022" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B1022" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:2">
+      <c r="A1023" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B1023" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:2">
+      <c r="A1024" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B1024" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:2">
+      <c r="A1025" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1025" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:2">
+      <c r="A1026" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1026" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2">
+      <c r="A1027" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1027" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:2">
+      <c r="A1028" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B1028" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2">
+      <c r="A1029" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B1029" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2">
+      <c r="A1030" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B1030" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:2">
+      <c r="A1031" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B1031" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:2">
+      <c r="A1032" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B1032" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:2">
+      <c r="A1033" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B1033" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:2">
+      <c r="A1034" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B1034" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:2">
+      <c r="A1035" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B1035" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:2">
+      <c r="A1036" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B1036" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:2">
+      <c r="A1037" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B1037" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:2">
+      <c r="A1038" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B1038" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:2">
+      <c r="A1039" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B1039" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:2">
+      <c r="A1040" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B1040" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:2">
+      <c r="A1041" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B1041" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:2">
+      <c r="A1042" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B1042" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:2">
+      <c r="A1043" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B1043" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:2">
+      <c r="A1044" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B1044" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:2">
+      <c r="A1045" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B1045" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:2">
+      <c r="A1046" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B1046" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:2">
+      <c r="A1047" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B1047" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:2">
+      <c r="A1048" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1048" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:2">
+      <c r="A1049" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1049" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:2">
+      <c r="A1050" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1050" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:2">
+      <c r="A1051" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1051" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:2">
+      <c r="A1052" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1052" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:2">
+      <c r="A1053" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B1053" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:2">
+      <c r="A1054" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B1054" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:2">
+      <c r="A1055" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B1055" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:2">
+      <c r="A1056" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B1056" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:2">
+      <c r="A1057" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B1057" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:2">
+      <c r="A1058" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B1058" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:2">
+      <c r="A1059" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B1059" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:2">
+      <c r="A1060" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1060" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:2">
+      <c r="A1061" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1061" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:2">
+      <c r="A1062" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B1062" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:2">
+      <c r="A1063" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B1063" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:2">
+      <c r="A1064" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B1064" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:2">
+      <c r="A1065" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B1065" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:2">
+      <c r="A1066" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1066" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:2">
+      <c r="A1067" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B1067" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:2">
+      <c r="A1068" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B1068" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:2">
+      <c r="A1069" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B1069" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:2">
+      <c r="A1070" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B1070" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:2">
+      <c r="A1071" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B1071" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:2">
+      <c r="A1072" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B1072" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:2">
+      <c r="A1073" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B1073" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:2">
+      <c r="A1074" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B1074" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:2">
+      <c r="A1075" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B1075" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:2">
+      <c r="A1076" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B1076" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:2">
+      <c r="A1077" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B1077" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:2">
+      <c r="A1078" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B1078" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:2">
+      <c r="A1079" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B1079" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:2">
+      <c r="A1080" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B1080" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:2">
+      <c r="A1081" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B1081" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:2">
+      <c r="A1082" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B1082" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:2">
+      <c r="A1083" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B1083" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:2">
+      <c r="A1084" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B1084" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:2">
+      <c r="A1085" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B1085" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:2">
+      <c r="A1086" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B1086" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:2">
+      <c r="A1087" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B1087" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:2">
+      <c r="A1088" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B1088" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:2">
+      <c r="A1089" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B1089" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:2">
+      <c r="A1090" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B1090" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:2">
+      <c r="A1091" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B1091" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:2">
+      <c r="A1092" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B1092" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:2">
+      <c r="A1093" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B1093" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:2">
+      <c r="A1094" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B1094" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:2">
+      <c r="A1095" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B1095" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:2">
+      <c r="A1096" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B1096" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:2">
+      <c r="A1097" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B1097" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:2">
+      <c r="A1098" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B1098" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:2">
+      <c r="A1099" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B1099" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:2">
+      <c r="A1100" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B1100" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:2">
+      <c r="A1101" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1101" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:2">
+      <c r="A1102" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1102" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:2">
+      <c r="A1103" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1103" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:2">
+      <c r="A1104" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1104" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:2">
+      <c r="A1105" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B1105" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:2">
+      <c r="A1106" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B1106" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:2">
+      <c r="A1107" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B1107" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:2">
+      <c r="A1108" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B1108" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:2">
+      <c r="A1109" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B1109" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:2">
+      <c r="A1110" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B1110" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:2">
+      <c r="A1111" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B1111" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:2">
+      <c r="A1112" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B1112" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:2">
+      <c r="A1113" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B1113" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:2">
+      <c r="A1114" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B1114" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:2">
+      <c r="A1115" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B1115" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:2">
+      <c r="A1116" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B1116" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:2">
+      <c r="A1117" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B1117" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:2">
+      <c r="A1118" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B1118" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:2">
+      <c r="A1119" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B1119" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:2">
+      <c r="A1120" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B1120" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:2">
+      <c r="A1121" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B1121" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:2">
+      <c r="A1122" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B1122" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:2">
+      <c r="A1123" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B1123" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:2">
+      <c r="A1124" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B1124" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:2">
+      <c r="A1125" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B1125" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:2">
+      <c r="A1126" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B1126" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:2">
+      <c r="A1127" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B1127" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:2">
+      <c r="A1128" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B1128" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:2">
+      <c r="A1129" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B1129" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:2">
+      <c r="A1130" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B1130" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:2">
+      <c r="A1131" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B1131" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:2">
+      <c r="A1132" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B1132" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:2">
+      <c r="A1133" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B1133" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:2">
+      <c r="A1134" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B1134" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:2">
+      <c r="A1135" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B1135" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:2">
+      <c r="A1136" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B1136" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:2">
+      <c r="A1137" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B1137" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:2">
+      <c r="A1138" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B1138" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:2">
+      <c r="A1139" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B1139" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:2">
+      <c r="A1140" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B1140" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:2">
+      <c r="A1141" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B1141" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:2">
+      <c r="A1142" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B1142" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:2">
+      <c r="A1143" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B1143" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:2">
+      <c r="A1144" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B1144" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:2">
+      <c r="A1145" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B1145" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:2">
+      <c r="A1146" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B1146" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:2">
+      <c r="A1147" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B1147" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:2">
+      <c r="A1148" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B1148" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:2">
+      <c r="A1149" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B1149" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:2">
+      <c r="A1150" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B1150" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:2">
+      <c r="A1151" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1151" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:2">
+      <c r="A1152" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1152" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:2">
+      <c r="A1153" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B1153" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:2">
+      <c r="A1154" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B1154" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:2">
+      <c r="A1155" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B1155" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:2">
+      <c r="A1156" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B1156" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:2">
+      <c r="A1157" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B1157" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:2">
+      <c r="A1158" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B1158" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:2">
+      <c r="A1159" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B1159" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:2">
+      <c r="A1160" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B1160" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:2">
+      <c r="A1161" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B1161" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:2">
+      <c r="A1162" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B1162" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:2">
+      <c r="A1163" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B1163" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:2">
+      <c r="A1164" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B1164" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:2">
+      <c r="A1165" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B1165" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:2">
+      <c r="A1166" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B1166" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:2">
+      <c r="A1167" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B1167" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:2">
+      <c r="A1168" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1168" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:2">
+      <c r="A1169" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1169" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:2">
+      <c r="A1170" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1170" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:2">
+      <c r="A1171" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B1171" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:2">
+      <c r="A1172" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B1172" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:2">
+      <c r="A1173" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B1173" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:2">
+      <c r="A1174" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B1174" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:2">
+      <c r="A1175" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B1175" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:2">
+      <c r="A1176" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B1176" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:2">
+      <c r="A1177" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B1177" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:2">
+      <c r="A1178" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B1178" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:2">
+      <c r="A1179" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B1179" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:2">
+      <c r="A1180" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B1180" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:2">
+      <c r="A1181" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B1181" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:2">
+      <c r="A1182" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B1182" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:2">
+      <c r="A1183" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1183" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:2">
+      <c r="A1184" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1184" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:2">
+      <c r="A1185" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B1185" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:2">
+      <c r="A1186" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B1186" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:2">
+      <c r="A1187" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B1187" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:2">
+      <c r="A1188" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B1188" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:2">
+      <c r="A1189" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B1189" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:2">
+      <c r="A1190" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B1190" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:2">
+      <c r="A1191" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B1191" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:2">
+      <c r="A1192" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B1192" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:2">
+      <c r="A1193" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B1193" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:2">
+      <c r="A1194" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B1194" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:2">
+      <c r="A1195" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B1195" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:2">
+      <c r="A1196" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B1196" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:2">
+      <c r="A1197" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B1197" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:2">
+      <c r="A1198" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B1198" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:2">
+      <c r="A1199" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B1199" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:2">
+      <c r="A1200" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1200" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:2">
+      <c r="A1201" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B1201" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:2">
+      <c r="A1202" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B1202" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:2">
+      <c r="A1203" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B1203" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:2">
+      <c r="A1204" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B1204" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:2">
+      <c r="A1205" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B1205" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:2">
+      <c r="A1206" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B1206" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:2">
+      <c r="A1207" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B1207" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:2">
+      <c r="A1208" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1208" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:2">
+      <c r="A1209" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1209" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:2">
+      <c r="A1210" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B1210" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:2">
+      <c r="A1211" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B1211" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:2">
+      <c r="A1212" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B1212" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:2">
+      <c r="A1213" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B1213" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:2">
+      <c r="A1214" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B1214" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:2">
+      <c r="A1215" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B1215" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:2">
+      <c r="A1216" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B1216" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:2">
+      <c r="A1217" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B1217" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:2">
+      <c r="A1218" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B1218" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:2">
+      <c r="A1219" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B1219" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:2">
+      <c r="A1220" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B1220" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:2">
+      <c r="A1221" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B1221" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:2">
+      <c r="A1222" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B1222" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:2">
+      <c r="A1223" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B1223" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:2">
+      <c r="A1224" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B1224" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:2">
+      <c r="A1225" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B1225" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:2">
+      <c r="A1226" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B1226" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:2">
+      <c r="A1227" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B1227" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:2">
+      <c r="A1228" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B1228" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:2">
+      <c r="A1229" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B1229" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:2">
+      <c r="A1230" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B1230" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:2">
+      <c r="A1231" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B1231" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:2">
+      <c r="A1232" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B1232" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:2">
+      <c r="A1233" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B1233" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:2">
+      <c r="A1234" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B1234" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:2">
+      <c r="A1235" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B1235" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:2">
+      <c r="A1236" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B1236" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:2">
+      <c r="A1237" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B1237" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:2">
+      <c r="A1238" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B1238" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:2">
+      <c r="A1239" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B1239" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:2">
+      <c r="A1240" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B1240" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:2">
+      <c r="A1241" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B1241" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:2">
+      <c r="A1242" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B1242" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:2">
+      <c r="A1243" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B1243" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:2">
+      <c r="A1244" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B1244" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:2">
+      <c r="A1245" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B1245" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:2">
+      <c r="A1246" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B1246" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:2">
+      <c r="A1247" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B1247" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:2">
+      <c r="A1248" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B1248" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:2">
+      <c r="A1249" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B1249" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:2">
+      <c r="A1250" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B1250" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:2">
+      <c r="A1251" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B1251" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:2">
+      <c r="A1252" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B1252" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:2">
+      <c r="A1253" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B1253" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:2">
+      <c r="A1254" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B1254" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:2">
+      <c r="A1255" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B1255" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:2">
+      <c r="A1256" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B1256" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:2">
+      <c r="A1257" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B1257" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:2">
+      <c r="A1258" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B1258" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:2">
+      <c r="A1259" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B1259" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:2">
+      <c r="A1260" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B1260" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:2">
+      <c r="A1261" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B1261" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:2">
+      <c r="A1262" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B1262" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:2">
+      <c r="A1263" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B1263" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:2">
+      <c r="A1264" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B1264" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:2">
+      <c r="A1265" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B1265" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:2">
+      <c r="A1266" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B1266" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:2">
+      <c r="A1267" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B1267" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:2">
+      <c r="A1268" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B1268" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:2">
+      <c r="A1269" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B1269" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:2">
+      <c r="A1270" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B1270" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:2">
+      <c r="A1271" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B1271" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:2">
+      <c r="A1272" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B1272" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:2">
+      <c r="A1273" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B1273" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:2">
+      <c r="A1274" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B1274" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:2">
+      <c r="A1275" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B1275" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:2">
+      <c r="A1276" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B1276" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:2">
+      <c r="A1277" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B1277" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:2">
+      <c r="A1278" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B1278" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:2">
+      <c r="A1279" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B1279" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:2">
+      <c r="A1280" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1280" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:2">
+      <c r="A1281" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1281" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:2">
+      <c r="A1282" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B1282" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:2">
+      <c r="A1283" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B1283" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:2">
+      <c r="A1284" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B1284" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:2">
+      <c r="A1285" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B1285" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:2">
+      <c r="A1286" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B1286" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:2">
+      <c r="A1287" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B1287" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:2">
+      <c r="A1288" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B1288" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:2">
+      <c r="A1289" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B1289" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:2">
+      <c r="A1290" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B1290" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:2">
+      <c r="A1291" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B1291" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:2">
+      <c r="A1292" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B1292" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:2">
+      <c r="A1293" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B1293" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:2">
+      <c r="A1294" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B1294" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:2">
+      <c r="A1295" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B1295" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:2">
+      <c r="A1296" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B1296" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:2">
+      <c r="A1297" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B1297" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:2">
+      <c r="A1298" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B1298" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:2">
+      <c r="A1299" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B1299" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:2">
+      <c r="A1300" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B1300" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:2">
+      <c r="A1301" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B1301" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:2">
+      <c r="A1302" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B1302" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:2">
+      <c r="A1303" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1303" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:2">
+      <c r="A1304" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1304" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:2">
+      <c r="A1305" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1305" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:2">
+      <c r="A1306" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B1306" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:2">
+      <c r="A1307" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B1307" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:2">
+      <c r="A1308" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B1308" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:2">
+      <c r="A1309" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B1309" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:2">
+      <c r="A1310" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1310" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:2">
+      <c r="A1311" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1311" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:2">
+      <c r="A1312" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1312" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:2">
+      <c r="A1313" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B1313" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:2">
+      <c r="A1314" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B1314" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:2">
+      <c r="A1315" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B1315" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:2">
+      <c r="A1316" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B1316" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:2">
+      <c r="A1317" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B1317" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:2">
+      <c r="A1318" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B1318" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:2">
+      <c r="A1319" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B1319" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:2">
+      <c r="A1320" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B1320" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:2">
+      <c r="A1321" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B1321" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:2">
+      <c r="A1322" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B1322" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:2">
+      <c r="A1323" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B1323" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:2">
+      <c r="A1324" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B1324" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:2">
+      <c r="A1325" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B1325" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:2">
+      <c r="A1326" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B1326" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:2">
+      <c r="A1327" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B1327" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:2">
+      <c r="A1328" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B1328" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:2">
+      <c r="A1329" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B1329" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:2">
+      <c r="A1330" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B1330" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:2">
+      <c r="A1331" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B1331" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:2">
+      <c r="A1332" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B1332" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:2">
+      <c r="A1333" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B1333" s="1" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/归经.xlsx
+++ b/归经.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2666" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2724" uniqueCount="587">
   <si>
     <t>药物</t>
   </si>
@@ -214,7 +214,7 @@
     <t>土茯苓</t>
   </si>
   <si>
-    <t>白花蛇虫草</t>
+    <t>白花蛇舌草</t>
   </si>
   <si>
     <t>射干</t>
@@ -883,7 +883,7 @@
     <t>熟地黄</t>
   </si>
   <si>
-    <t>何首乌</t>
+    <t>制首乌</t>
   </si>
   <si>
     <t>白芍</t>
@@ -1408,7 +1408,7 @@
     <t>预知子</t>
   </si>
   <si>
-    <t>橘红</t>
+    <t>化橘红</t>
   </si>
   <si>
     <t>鸡矢藤</t>
@@ -1736,6 +1736,45 @@
   </si>
   <si>
     <t>毛茛</t>
+  </si>
+  <si>
+    <t>黄酒</t>
+  </si>
+  <si>
+    <t>冬瓜仁</t>
+  </si>
+  <si>
+    <t>茯神</t>
+  </si>
+  <si>
+    <t>守宫</t>
+  </si>
+  <si>
+    <t>蚕砂</t>
+  </si>
+  <si>
+    <t>侧柏炭</t>
+  </si>
+  <si>
+    <t>海藻</t>
+  </si>
+  <si>
+    <t>红藤</t>
+  </si>
+  <si>
+    <t>冬青</t>
+  </si>
+  <si>
+    <t>两头尖</t>
+  </si>
+  <si>
+    <t>忍冬藤</t>
+  </si>
+  <si>
+    <t>夜交藤</t>
+  </si>
+  <si>
+    <t>檀香</t>
   </si>
 </sst>
 </file>
@@ -1743,12 +1782,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1770,6 +1809,79 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1778,8 +1890,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1793,8 +1928,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1810,105 +1953,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1923,7 +1968,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1935,7 +2004,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1947,7 +2070,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1959,49 +2088,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2013,97 +2142,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2132,43 +2177,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2197,11 +2210,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2214,16 +2248,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2232,140 +2277,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2422,7 +2468,7 @@
     <dxf>
       <font>
         <name val="等线"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -2436,7 +2482,7 @@
     <dxf>
       <font>
         <name val="等线"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -2458,13 +2504,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:B1333" totalsRowShown="0">
-  <autoFilter ref="A1:B1333"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:B1362" totalsRowShown="0">
+  <autoFilter ref="A1:B1362"/>
   <tableColumns count="2">
     <tableColumn id="1" name="药物" dataDxfId="0"/>
     <tableColumn id="2" name="归经" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2726,10 +2772,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1333"/>
+  <dimension ref="A1:B1362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1314" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1333"/>
+    <sheetView tabSelected="1" topLeftCell="A1354" workbookViewId="0">
+      <selection activeCell="F1361" sqref="F1361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.7" outlineLevelCol="1"/>
@@ -13402,6 +13448,238 @@
         <v>15</v>
       </c>
     </row>
+    <row r="1334" spans="1:2">
+      <c r="A1334" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B1334" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:2">
+      <c r="A1335" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B1335" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:2">
+      <c r="A1336" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B1336" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:2">
+      <c r="A1337" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="B1337" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:2">
+      <c r="A1338" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="B1338" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:2">
+      <c r="A1339" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B1339" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:2">
+      <c r="A1340" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1340" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:2">
+      <c r="A1341" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1341" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:2">
+      <c r="A1342" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1342" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:2">
+      <c r="A1343" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="B1343" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:2">
+      <c r="A1344" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="B1344" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:2">
+      <c r="A1345" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="B1345" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:2">
+      <c r="A1346" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B1346" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:2">
+      <c r="A1347" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B1347" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:2">
+      <c r="A1348" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B1348" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:2">
+      <c r="A1349" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B1349" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:2">
+      <c r="A1350" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B1350" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:2">
+      <c r="A1351" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1351" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:2">
+      <c r="A1352" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1352" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:2">
+      <c r="A1353" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="B1353" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:2">
+      <c r="A1354" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="B1354" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:2">
+      <c r="A1355" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="B1355" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:2">
+      <c r="A1356" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B1356" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:2">
+      <c r="A1357" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B1357" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:2">
+      <c r="A1358" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="B1358" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:2">
+      <c r="A1359" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="B1359" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:2">
+      <c r="A1360" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="B1360" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:2">
+      <c r="A1361" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="B1361" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:2">
+      <c r="A1362" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="B1362" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
